--- a/fuentes/contenidos/grado08/guion13/escaleta CN_08_13_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion13/escaleta CN_08_13_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -11,9 +16,9 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$32</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1035,16 +1040,65 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,55 +1139,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,7 +1200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,7 +1235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1443,7 +1448,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,136 +1476,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="38" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="24" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="34">
         <v>1</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="51" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="20">
@@ -1623,43 +1628,43 @@
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="34">
         <v>2</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="26" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="28" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="20">
@@ -3340,7 +3345,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -3363,7 +3368,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="10"/>
     </row>
-    <row r="34" spans="1:21" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -4668,16 +4673,10 @@
     <row r="287" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="288" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U32">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4692,6 +4691,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5262,7 +5267,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5277,7 +5282,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5292,7 +5297,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
